--- a/DTT-Assessment-Hour-Log_2024.xlsx
+++ b/DTT-Assessment-Hour-Log_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web_backend_test_catering_api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inholland-my.sharepoint.com/personal/703885_student_inholland_nl/Documents/Documents/Informatica/jaar 2/periode 4/web_backend_test_catering_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0F34BD-722F-4601-B95F-537532441A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{0D0F34BD-722F-4601-B95F-537532441A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B4F57F7-87E5-40A7-B888-982022ECC77A}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="732" windowWidth="22200" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="636" yWindow="0" windowWidth="22200" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Subject</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t xml:space="preserve">Could not make the build in  Database work. Everytime i got the errors like $db is deprecated or call to a member function executeQuery() on null </t>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t>build in database works</t>
+  </si>
+  <si>
+    <t>I updated the build in database where i dont use the executeQuery.</t>
   </si>
 </sst>
 </file>
@@ -404,14 +413,14 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -868,7 +877,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.53515625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -881,22 +890,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1077,10 +1086,18 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45420</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="4"/>
     </row>
@@ -1088,7 +1105,7 @@
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="21"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="9"/>
       <c r="F15" s="4"/>
     </row>

--- a/DTT-Assessment-Hour-Log_2024.xlsx
+++ b/DTT-Assessment-Hour-Log_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inholland-my.sharepoint.com/personal/703885_student_inholland_nl/Documents/Documents/Informatica/jaar 2/periode 4/web_backend_test_catering_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{0D0F34BD-722F-4601-B95F-537532441A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B4F57F7-87E5-40A7-B888-982022ECC77A}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0D0F34BD-722F-4601-B95F-537532441A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A568359E-6368-48E5-A015-17567ED0369A}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="0" windowWidth="22200" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="720" windowWidth="22200" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Subject</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t xml:space="preserve">build in database error </t>
-  </si>
-  <si>
-    <t>1:30min</t>
   </si>
   <si>
     <t>The last segment of features is done</t>
@@ -555,6 +552,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -877,7 +878,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.53515625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1032,7 +1033,7 @@
         <v>45414</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="4"/>
@@ -1041,14 +1042,14 @@
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
+      <c r="B11" s="6">
+        <v>1</v>
       </c>
       <c r="C11" s="7">
         <v>45414</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="4"/>
@@ -1064,7 +1065,7 @@
         <v>45415</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="4"/>
@@ -1087,16 +1088,16 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>45420</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="4"/>
@@ -1227,7 +1228,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>

--- a/DTT-Assessment-Hour-Log_2024.xlsx
+++ b/DTT-Assessment-Hour-Log_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inholland-my.sharepoint.com/personal/703885_student_inholland_nl/Documents/Documents/Informatica/jaar 2/periode 4/web_backend_test_catering_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0D0F34BD-722F-4601-B95F-537532441A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A568359E-6368-48E5-A015-17567ED0369A}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{0D0F34BD-722F-4601-B95F-537532441A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B54E8FFA-27A6-4602-8FF4-0C0653169A04}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="720" windowWidth="22200" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="636" yWindow="0" windowWidth="22200" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Subject</t>
   </si>
@@ -132,15 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">Could not make the build in  Database work. Everytime i got the errors like $db is deprecated or call to a member function executeQuery() on null </t>
-  </si>
-  <si>
-    <t>15min</t>
-  </si>
-  <si>
-    <t>build in database works</t>
-  </si>
-  <si>
-    <t>I updated the build in database where i dont use the executeQuery.</t>
   </si>
 </sst>
 </file>
@@ -878,7 +869,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.53515625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1087,18 +1078,10 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="7">
-        <v>45420</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="9"/>
       <c r="F14" s="4"/>
     </row>
